--- a/ZYJ-Client TestCase/作业家老师端v2.4.5.2.xlsx
+++ b/ZYJ-Client TestCase/作业家老师端v2.4.5.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批改页" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
   <si>
     <t>编号</t>
   </si>
@@ -646,6 +646,363 @@
     <t>作业二维表-查看题目，清空临时批注，并可以继续添加</t>
   </si>
   <si>
+    <t>批改页筛选-筛选条件设置为全部状态，全部班级，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为全部状态，全部班级，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为未批改，全部班级，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为未批改，全部班级，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为已批完，全部班级，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为已批完，全部班级，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为全部状态，初一三班，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为全部状态，初一三班，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为未批改，初一三班，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为未批改，初一三班，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为已批完，初一三班，查看批改结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-筛选条件设置为已批完，初一三班，翻页</t>
+  </si>
+  <si>
+    <t>批改页筛选-管理员端添加一个班级后，查看筛选条件</t>
+  </si>
+  <si>
+    <t>批改页筛选-管理员端添加一个班级后，老师端未发布作业，筛选该班级的作业，查看结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-管理员端添加一个班级后，老师端发布作业，筛选该班级的作业，查看结果</t>
+  </si>
+  <si>
+    <t>批改页筛选-管理员端删除一个班级后，查看筛选条件</t>
+  </si>
+  <si>
+    <t>批改页筛选-管理员端删除一个班级后，筛选其他班级的作业，查看筛选结果</t>
+  </si>
+  <si>
+    <t>批改页-消息提醒，一个作业收到第一个学生提交的作业，弹出弹窗</t>
+  </si>
+  <si>
+    <t>批改页-消息提醒，一个作业收到第2个学生提交的作业，不弹出弹窗</t>
+  </si>
+  <si>
+    <t>批改页-消息提醒，有未批改 的作业，显示红点提醒</t>
+  </si>
+  <si>
+    <t>批改页-消息提醒，没有未批改的作业，不显示红点提醒</t>
+  </si>
+  <si>
+    <t>批改页-消息提醒，批改了所有未批改的作业，红点消失</t>
+  </si>
+  <si>
+    <t>班级发题</t>
+  </si>
+  <si>
+    <t>班级发题-选择课程，打开课程列表，选择课程</t>
+  </si>
+  <si>
+    <t>班级发题-选择课程，打开课程列表，切换不同的课程</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，查看页面</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，切换教学计划</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，查看章节列表</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，切换章节</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，查看章节下的课时列表</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，查看章节-课时下的题目</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，在章节下，打开不同的课时</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，在章节-课时下，切换下一课时</t>
+  </si>
+  <si>
+    <t>末尾章节</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，在章节-课时下，切换上一课时</t>
+  </si>
+  <si>
+    <t>起始章节</t>
+  </si>
+  <si>
+    <t>班级发题-教学计划，点击备选题目按钮，查看备选题目</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，选题，查看备选题目的统计</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，选题，在教学计划页查看备选题目的统计</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，取消选择题目，查看备选题目的统计</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，取消选择题目后返回到教学计划页查看备选题目统计</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，点击备选题目按钮，查看备选题目</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，点击编辑题目，添加新题目</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，点击“有答案”，查看题目答案</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，点击“有答案，有解析”，查看题目的答案和解析</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，查看“查看全部”，查看题目详情</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选题目，按题型筛选</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选题目，按难度筛选</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选题目，按题型和难度组合筛选</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，排序，默认排序</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，排序，正确率从高到低</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，排序，正确率从低到高</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选结果排序，正确率从高到低</t>
+  </si>
+  <si>
+    <t>筛选包括组合筛选</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选结果排序，正确率从低到高</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，筛选结果排序，默认排序</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，手写添加题目，选择题型和难度，立即发布</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，手写添加题目，选择题型和难度，添加到题库</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，拍照添加题目，选择题型和难度，立即发布</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，拍照添加题目，选择题型和难度，添加到题库</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，选择相片添加题目，选择题型和难度，立即发布</t>
+  </si>
+  <si>
+    <t>班级发题-添加题目，选择相片添加题目，选择题型和难度，添加到题库</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，返回到班级发题页，备选题目里面的题目被保存</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，切换班级后，备选题目里面的题目被保存</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，退出或杀掉程序，备选题目里面的题目被保存</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，备选题目页发布作业成功后，该备选题目里面的题目被清空</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，其他班级发布作业成功，该班级备选题目里面的题目被保存</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，点击题目上的删除按钮，删除题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，点击批量删除按钮，选择一个要删除的题目，删除题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，点击批量删除按钮，选择多个要删除的题目，删除题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，点击批量删除按钮，选择所有题目，删除题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，点击批量删除按钮，选择题目，取消删除</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，删除完题目以后，点击添加按钮，进入课时题目列表，选择题目</t>
+  </si>
+  <si>
+    <t>从课时列表进入备选题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，删除完题目以后，点击添加按钮，进入教学计划，选择题目</t>
+  </si>
+  <si>
+    <t>从教学计划进入备选题目</t>
+  </si>
+  <si>
+    <t>班级发题-备选题目，查看题目，点击发布按钮，发布作业</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，查看作业默认名称</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，设置作业名字为空</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，设置作业名字超过20个字</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，设置作业名字为空格</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，设置作业备注为空</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，这是作业备注不为空</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，修改发布时间，定时发布作业</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，设置立即发布作业</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，查看发布班级</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，查看作业题目数量</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，发布班级作业成功后，批改页面添加一个作业条目</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，手写题目立即发布，发布作业成功后，批改页面添加一个作业条目</t>
+  </si>
+  <si>
+    <t>班级发题-发布作业，拍照发题立即发布，发布作业成功后，批改页面添加一个作业条目</t>
+  </si>
+  <si>
+    <t>分组发题</t>
+  </si>
+  <si>
+    <t>分组发题-选择课程，打开课程列表，选择课程</t>
+  </si>
+  <si>
+    <t>分组发题-选择课程，打开课程列表，切换不同的课程</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，没有分组方案，查看页面</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，查看分组方案与班级页面分组方案是否对应</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页添加分组方案，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页删除分组方案，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页添加分组，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页删除分组，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页添加分组学生，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-分组方案，班级页删除分组学生，分组发题页对应更新</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，添加临时分组</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，给分组添加学生，学生来自其他分组</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，给分组添加学生，学生来自未分组的学生分组</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，给分组删除学生</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，修改分组名称为空</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，修改分组名称为空格</t>
+  </si>
+  <si>
+    <t>分组发题-编辑分组，修改分组名称超过20个字</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，查看页面</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，切换教学计划</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，查看章节列表</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，切换章节</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，查看章节下的课时列表</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，查看章节-课时下的题目</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，在章节下，打开不同的课时</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，在章节-课时下，切换下一课时</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，在章节-课时下，切换上一课时</t>
+  </si>
+  <si>
+    <t>分组发题-教学计划，点击备选题目按钮，查看备选题目</t>
+  </si>
+  <si>
+    <t>班级发题-课时题目列表，点击备选题目按钮，进入待发布页面</t>
+  </si>
+  <si>
     <t>错题本</t>
   </si>
   <si>
@@ -1089,12 +1446,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,38 +1461,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1157,7 +1484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,16 +1506,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,7 +1530,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,6 +1580,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1246,8 +1594,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,19 +1625,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,7 +1673,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,109 +1727,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,19 +1763,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,17 +1836,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,21 +1874,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1545,11 +1888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,6 +1917,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1576,10 +1945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1588,137 +1957,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,6 +2104,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2101,17 +2476,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD204"/>
+  <dimension ref="A1:XFD226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomLeft" activeCell="C233" sqref="C233:F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="50.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
@@ -2232,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" ht="27" spans="2:7">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" ht="27" spans="2:13">
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2346,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" ht="27" spans="2:13">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +2736,7 @@
       </c>
       <c r="L18" s="2">
         <f>COUNTIF(G:G,"NULL")</f>
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M18" s="3">
         <f>COUNTIF(G:G,"NULL")/(COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL"))</f>
@@ -52441,7 +52816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" ht="27" spans="2:7">
       <c r="B122" s="5" t="s">
         <v>130</v>
       </c>
@@ -52547,7 +52922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" ht="27" spans="2:7">
       <c r="B133" s="5" t="s">
         <v>140</v>
       </c>
@@ -52555,7 +52930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" ht="27" spans="2:7">
       <c r="B134" s="5" t="s">
         <v>141</v>
       </c>
@@ -52563,7 +52938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" ht="27" spans="2:7">
       <c r="B135" s="5" t="s">
         <v>142</v>
       </c>
@@ -52571,7 +52946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" ht="27" spans="2:7">
       <c r="B136" s="5" t="s">
         <v>143</v>
       </c>
@@ -53056,7 +53431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" ht="27" spans="2:7">
       <c r="B191" s="5" t="s">
         <v>195</v>
       </c>
@@ -53165,6 +53540,182 @@
         <v>208</v>
       </c>
       <c r="G204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" ht="27" spans="2:7">
+      <c r="B205" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" ht="27" spans="2:7">
+      <c r="B207" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" ht="27" spans="2:7">
+      <c r="B209" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" ht="27" spans="2:7">
+      <c r="B211" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" ht="27" spans="2:7">
+      <c r="B213" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" ht="27" spans="2:7">
+      <c r="B215" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" ht="27" spans="2:7">
+      <c r="B218" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" ht="27" spans="2:7">
+      <c r="B219" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" ht="27" spans="2:7">
+      <c r="B221" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" ht="27" spans="2:7">
+      <c r="B222" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" ht="27" spans="2:7">
+      <c r="B223" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G226" t="s">
         <v>9</v>
       </c>
     </row>
@@ -53177,7 +53728,7 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G18 G25:G204">
+  <conditionalFormatting sqref="G1:G18 G25:G226">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -53186,7 +53737,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G3 G4:G5 G6:G8 G9:G12 G13:G19 G20:G24 G25:G28 G29:G33 G34:G35 G36:G43 G44:G58 G59:G92 G93:G105 G106:G113 G114:G115 G116:G122 G123:G131 G132:G167 G168:G189 G190:G204">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G3 G4:G5 G6:G8 G9:G12 G13:G19 G20:G24 G25:G28 G29:G33 G34:G35 G36:G43 G44:G58 G59:G92 G93:G105 G106:G113 G114:G115 G116:G122 G123:G131 G132:G167 G168:G189 G190:G203 G204:G220 G221:G226">
       <formula1>"NULL,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -53199,20 +53750,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="9" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -53238,135 +53794,1000 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="7:7">
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="2:8">
+      <c r="B2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="7:14">
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="7:14">
+    <row r="4" spans="2:14">
+      <c r="B4" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2">
-        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
-        <v>14</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="7:14">
+    <row r="5" spans="2:14">
+      <c r="B5" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <f>COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL")</f>
+        <v>82</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M6" s="2">
         <f>COUNTIF(G:G,"PASS")</f>
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="3">
         <f>COUNTIF(G:G,"PASS")/(COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="7:14">
-      <c r="G6" t="s">
+    <row r="7" spans="2:14">
+      <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M7" s="2">
         <f>COUNTIF(G:G,"FAIL")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N7" s="3">
         <f>COUNTIF(G:G,"FAIL")/(COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="7:14">
-      <c r="G7" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <f>COUNTIF(G:G,"NULL")</f>
-        <v>14</v>
-      </c>
-      <c r="N7" s="3">
+        <v>82</v>
+      </c>
+      <c r="N8" s="3">
         <f>COUNTIF(G:G,"NULL")/(COUNTIF(G:G,"PASS")+COUNTIF(G:G,"FAIL")+COUNTIF(G:G,"NULL"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="2:7">
+      <c r="B9" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="2:7">
+      <c r="B10" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
+    <row r="11" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="7:7">
+    <row r="12" spans="2:7">
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="2:7">
+      <c r="B13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="7:7">
+    <row r="14" spans="2:7">
+      <c r="B14" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="7:7">
+    <row r="15" spans="2:7">
+      <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="2:7">
+      <c r="B20" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="2:7">
+      <c r="B24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="2:7">
+      <c r="B44" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="2:7">
+      <c r="B45" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="2:7">
+      <c r="B47" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="2:7">
+      <c r="B48" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="2:7">
+      <c r="B51" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="2:7">
+      <c r="B52" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="2:7">
+      <c r="B66" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="2:7">
+      <c r="B67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" ht="27" spans="2:2">
+      <c r="B105" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" ht="27" spans="2:2">
+      <c r="B109" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="2:2">
+      <c r="B123" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" ht="27" spans="2:2">
+      <c r="B124" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="2:2">
+      <c r="B126" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="2:2">
+      <c r="B127" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="2:2">
+      <c r="B130" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="2:2">
+      <c r="B131" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G15">
+  <conditionalFormatting sqref="G1:G67">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:G89">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G16 G54 G62 G3:G13 G14:G15 G17:G19 G20:G39 G40:G42 G43:G44 G45:G47 G48:G49 G50:G53 G55:G61 G63:G67 G73:G83 G84:G89">
       <formula1>"NULL,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -53425,7 +54846,7 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -53433,7 +54854,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -53444,7 +54865,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -53455,7 +54876,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -53473,7 +54894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -53492,7 +54913,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -53514,7 +54935,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -53536,7 +54957,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -53558,7 +54979,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -53569,7 +54990,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -53580,7 +55001,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -53591,7 +55012,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -53602,7 +55023,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -53613,7 +55034,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -53624,7 +55045,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -53635,7 +55056,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -53646,7 +55067,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -53657,7 +55078,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -53668,7 +55089,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
@@ -53679,7 +55100,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
@@ -53690,7 +55111,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -53701,7 +55122,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -53712,7 +55133,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -53723,7 +55144,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -53734,7 +55155,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -53745,7 +55166,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -53756,7 +55177,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -53767,7 +55188,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -53778,7 +55199,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -53789,7 +55210,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -53800,7 +55221,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -53811,7 +55232,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -53822,7 +55243,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -53833,7 +55254,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -53844,7 +55265,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -53855,10 +55276,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -53869,10 +55290,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -70259,7 +71680,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -70270,7 +71691,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -70281,7 +71702,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -70292,7 +71713,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
@@ -70303,7 +71724,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -70314,7 +71735,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -70325,7 +71746,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -70336,7 +71757,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -70347,10 +71768,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -70361,10 +71782,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -70375,7 +71796,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -70386,7 +71807,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -70397,7 +71818,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -70408,7 +71829,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -70419,7 +71840,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
@@ -70430,7 +71851,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
@@ -70441,7 +71862,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
@@ -70452,7 +71873,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -70463,7 +71884,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="G57" t="s">
         <v>9</v>
@@ -70474,7 +71895,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="G58" t="s">
         <v>9</v>
@@ -70485,7 +71906,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
@@ -70496,7 +71917,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
@@ -70507,7 +71928,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
@@ -70518,7 +71939,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
@@ -70529,7 +71950,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="G63" t="s">
         <v>9</v>
@@ -70540,7 +71961,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="G64" t="s">
         <v>9</v>
@@ -70551,7 +71972,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="G65" t="s">
         <v>9</v>
@@ -70562,7 +71983,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
@@ -70573,7 +71994,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="G67" t="s">
         <v>9</v>
@@ -70584,7 +72005,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -70595,7 +72016,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -70606,7 +72027,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -70617,7 +72038,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
@@ -70628,7 +72049,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="G72" t="s">
         <v>9</v>
@@ -70639,7 +72060,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -70650,7 +72071,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -70661,7 +72082,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -70672,7 +72093,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
@@ -70683,7 +72104,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -70694,7 +72115,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
@@ -70705,7 +72126,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
@@ -70716,7 +72137,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -70727,7 +72148,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -70738,7 +72159,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
@@ -70746,7 +72167,7 @@
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="4" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -70754,7 +72175,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="G87" t="s">
         <v>9</v>
@@ -70765,7 +72186,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -70776,7 +72197,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -70787,7 +72208,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -70798,7 +72219,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="G91" t="s">
         <v>9</v>
@@ -70809,10 +72230,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="G92" t="s">
         <v>9</v>
@@ -70823,10 +72244,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="G93" t="s">
         <v>9</v>
@@ -70837,7 +72258,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
       <c r="G94" t="s">
         <v>9</v>
@@ -70848,10 +72269,10 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>304</v>
+        <v>423</v>
       </c>
       <c r="G95" t="s">
         <v>9</v>
@@ -70862,10 +72283,10 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="G96" t="s">
         <v>9</v>
@@ -70876,10 +72297,10 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="G97" t="s">
         <v>9</v>
@@ -70890,10 +72311,10 @@
         <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="G98" t="s">
         <v>9</v>
@@ -70904,10 +72325,10 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
       <c r="G99" t="s">
         <v>9</v>
@@ -70918,10 +72339,10 @@
         <v>14</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
       <c r="G100" t="s">
         <v>9</v>
@@ -70932,7 +72353,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>311</v>
+        <v>430</v>
       </c>
       <c r="G101" t="s">
         <v>9</v>
@@ -70943,7 +72364,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="G102" t="s">
         <v>9</v>
@@ -70954,7 +72375,7 @@
         <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="G103" t="s">
         <v>9</v>
@@ -70965,7 +72386,7 @@
         <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="G104" t="s">
         <v>9</v>
@@ -70976,7 +72397,7 @@
         <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="G105" t="s">
         <v>9</v>
@@ -70987,10 +72408,10 @@
         <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="G106" t="s">
         <v>9</v>
@@ -71001,10 +72422,10 @@
         <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -71015,7 +72436,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="G108" t="s">
         <v>9</v>
@@ -71026,7 +72447,7 @@
         <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="G109" t="s">
         <v>9</v>
@@ -71037,7 +72458,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
@@ -71048,7 +72469,7 @@
         <v>25</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="G111" t="s">
         <v>9</v>
@@ -71059,7 +72480,7 @@
         <v>26</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
@@ -71070,7 +72491,7 @@
         <v>27</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -71081,7 +72502,7 @@
         <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="G114" t="s">
         <v>9</v>
@@ -71092,7 +72513,7 @@
         <v>29</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="G115" t="s">
         <v>9</v>
@@ -71103,7 +72524,7 @@
         <v>30</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="G116" t="s">
         <v>9</v>
@@ -71114,7 +72535,7 @@
         <v>31</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
       <c r="G117" t="s">
         <v>9</v>
@@ -71125,7 +72546,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>329</v>
+        <v>448</v>
       </c>
       <c r="G118" t="s">
         <v>9</v>
@@ -71136,7 +72557,7 @@
         <v>33</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="G119" t="s">
         <v>9</v>
@@ -71147,7 +72568,7 @@
         <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -71158,10 +72579,10 @@
         <v>35</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>332</v>
+        <v>451</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -71172,10 +72593,10 @@
         <v>36</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>335</v>
+        <v>454</v>
       </c>
       <c r="G122" t="s">
         <v>9</v>
@@ -71186,7 +72607,7 @@
         <v>37</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="G123" t="s">
         <v>9</v>
@@ -71197,7 +72618,7 @@
         <v>38</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="G124" t="s">
         <v>9</v>
@@ -71208,7 +72629,7 @@
         <v>39</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
+        <v>456</v>
       </c>
       <c r="G125" t="s">
         <v>9</v>
@@ -71219,7 +72640,7 @@
         <v>40</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>338</v>
+        <v>457</v>
       </c>
       <c r="G126" t="s">
         <v>9</v>
@@ -71230,7 +72651,7 @@
         <v>41</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="G127" t="s">
         <v>9</v>
@@ -71241,7 +72662,7 @@
         <v>42</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G128" t="s">
         <v>9</v>
@@ -71252,7 +72673,7 @@
         <v>43</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="G129" t="s">
         <v>9</v>
@@ -71263,7 +72684,7 @@
         <v>44</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>342</v>
+        <v>461</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
@@ -71274,7 +72695,7 @@
         <v>45</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>343</v>
+        <v>462</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -71285,7 +72706,7 @@
         <v>46</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -71296,7 +72717,7 @@
         <v>47</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="G133" t="s">
         <v>9</v>
@@ -71307,7 +72728,7 @@
         <v>48</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>346</v>
+        <v>465</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -71318,10 +72739,10 @@
         <v>49</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -71332,10 +72753,10 @@
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -71346,10 +72767,10 @@
         <v>51</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -71360,10 +72781,10 @@
         <v>52</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G138" t="s">
         <v>9</v>
@@ -71374,10 +72795,10 @@
         <v>53</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G139" t="s">
         <v>9</v>
@@ -71388,10 +72809,10 @@
         <v>54</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G140" t="s">
         <v>9</v>
@@ -71402,10 +72823,10 @@
         <v>55</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G141" t="s">
         <v>9</v>
@@ -71416,10 +72837,10 @@
         <v>56</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>354</v>
+        <v>473</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G142" t="s">
         <v>9</v>
